--- a/NEW HR/DONE/PALADAN, EMERSON.xlsx
+++ b/NEW HR/DONE/PALADAN, EMERSON.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>06/13-16/2023</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>10/23-25/2023</t>
+  </si>
+  <si>
+    <t>11/14-17,20/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>12/11-13, 18/2023</t>
+  </si>
+  <si>
+    <t>12/19,27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3296,9 +3314,9 @@
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A66" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,7 +3477,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>61.25</v>
+        <v>68.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3469,7 +3487,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4975,13 +4993,15 @@
         <v>45078</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4989,15 +5009,19 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45108</v>
+      </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -5005,15 +5029,19 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45139</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -5021,15 +5049,19 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45170</v>
+      </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -5037,15 +5069,19 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45200</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -5053,15 +5089,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45231</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5884,9 +5924,9 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6056,7 +6096,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>45.886000000000003</v>
+        <v>32.886000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6066,7 +6106,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>77.75</v>
+        <v>73.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6256,10 +6296,16 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="39"/>
+      <c r="D18" s="39">
+        <v>5</v>
+      </c>
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13" t="str">
@@ -6269,11 +6315,15 @@
       <c r="H18" s="39"/>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
       <c r="E19" s="9"/>
@@ -6282,16 +6332,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39"/>
+      <c r="H19" s="39">
+        <v>3</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C20" s="13"/>
-      <c r="D20" s="39"/>
+      <c r="D20" s="39">
+        <v>4</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13" t="str">
@@ -6301,11 +6361,15 @@
       <c r="H20" s="39"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
@@ -6317,13 +6381,19 @@
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="49">
+        <v>45275</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>4</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -6333,11 +6403,15 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
@@ -6346,10 +6420,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39">
+        <v>1</v>
+      </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="49">
+        <v>45261</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
